--- a/Process/templates/Template Archivo de Seguimiento.xlsx
+++ b/Process/templates/Template Archivo de Seguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laburo\VORTEX\PROYECTOS\01_RecuperacionSoportes\Process\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8967F761-208C-4AF0-BD02-6ED4E717A8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE71C479-4494-4D95-8AB8-861D6CF8E254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Empresa</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Nro de Proceso</t>
+  </si>
+  <si>
+    <t>Doc Alt</t>
   </si>
 </sst>
 </file>
@@ -123,9 +129,53 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -162,44 +212,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -214,14 +226,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA87B38E-32D2-4DA9-99CA-DAEA8F5A407F}" name="Tabla1" displayName="Tabla1" ref="A1:H2" insertRow="1" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:H2" xr:uid="{EA87B38E-32D2-4DA9-99CA-DAEA8F5A407F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA87B38E-32D2-4DA9-99CA-DAEA8F5A407F}" name="Tabla1" displayName="Tabla1" ref="A1:J2" insertRow="1" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J2" xr:uid="{EA87B38E-32D2-4DA9-99CA-DAEA8F5A407F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{EB9A7346-C7CD-4342-9B1E-0A3CFEB2F7FD}" name="Empresa" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{0225F352-23A6-4F2C-8690-644C08857AC7}" name="Tipo Docto" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{8CE1B8E0-4B6A-43C6-AE37-D2EDD88F5A0D}" name="Nro Docto" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{D6BA271B-5052-4E4D-A1C4-4FEAC2ECB399}" name="Detalle" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{C5DCFACC-54E0-42DD-8487-42365821B38C}" name="Documento Cruce" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00F4C7CE-8EBA-4B4B-AA42-5B7C299D4D8B}" name="Nro de Proceso" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{7D669DAB-10A4-480B-B016-E61D6F0E796A}" name="Doc Alt" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{FB771F0A-B3ED-478F-98F5-2250EAC8CC5F}" name="Estado Procesamiento" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{D8B2C176-5008-42E3-909C-4AE1F7631977}" name="Fecha Procesamiento" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{36DF4343-07B0-41EE-BDFD-F7EF65B2BDEF}" name="Observaciones" dataDxfId="2"/>
@@ -493,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -506,13 +520,14 @@
     <col min="3" max="3" width="17.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.44140625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="6" max="7" width="20.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +544,18 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
